--- a/src/main/resources/assets/inumodelloader/signs/signtext.xlsx
+++ b/src/main/resources/assets/inumodelloader/signs/signtext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="391">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +379,6 @@
     <t>08-407</t>
   </si>
   <si>
-    <t>08-407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#808080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,34 +400,996 @@
     <t>08-472</t>
   </si>
   <si>
+    <t>스마트팩토리 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Factory Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산혁신연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innovative Production Research Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류시스템연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistics System Research Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능운영최적화 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계적 학습 및 위험분석 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical Learning And Risk Analysis Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품시스템공학 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Systems Engineering Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동과학연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labor Science Research Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업경영공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Industrial and Management Engineering Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 연 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yon-Soo Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-466</t>
+  </si>
+  <si>
+    <t>08-467</t>
+  </si>
+  <si>
+    <t>08-468</t>
+  </si>
+  <si>
+    <t>박 기 정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kijung Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 철 홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chol-Hong Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유 재 홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JaeHong Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 병 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byung Soo Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-303</t>
+  </si>
+  <si>
+    <t>08-304</t>
+  </si>
+  <si>
+    <t>08-305</t>
+  </si>
+  <si>
+    <t>08-306</t>
+  </si>
+  <si>
+    <t>08-307</t>
+  </si>
+  <si>
+    <t>08-308</t>
+  </si>
+  <si>
+    <t>08-309</t>
+  </si>
+  <si>
+    <t>08-311</t>
+  </si>
+  <si>
+    <t>08-312</t>
+  </si>
+  <si>
+    <t>08-313</t>
+  </si>
+  <si>
+    <t>08-314</t>
+  </si>
+  <si>
+    <t>08-316</t>
+  </si>
+  <si>
+    <t>08-317</t>
+  </si>
+  <si>
+    <t>08-318</t>
+  </si>
+  <si>
+    <t>08-319</t>
+  </si>
+  <si>
+    <t>08-321</t>
+  </si>
+  <si>
+    <t>전략소재 및 재자원화 실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박막전자재료실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thin film Electronic Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지소재실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀기자재실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision Gauge Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학과사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Materials Science and Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seminar Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후막적층재료실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thick film Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전재료실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optoelectronic Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략소재및재자원화연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab. of Strategy Materials and Recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab. of Strategy Materials and Recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept of Safety Engineering Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taehoon Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복합재료실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composite Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지소재연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDT연구실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDT Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕비실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office Pantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학과사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Electronics Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초전자회로사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Electronic Circuit Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자회로실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Circuit Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미디어실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multimedia Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈의실(남)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locker (M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강  의  실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-321a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-321b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-117c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-322a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-322b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-361</t>
+  </si>
+  <si>
+    <t>08-362</t>
+  </si>
+  <si>
+    <t>무선및마이크로파통신 연구실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless &amp; Microwave Communication Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오전자공학 연구실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bioelectronics Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Electronics Enginerring Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변상원 변상원 Sangwon Byun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#808080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-383</t>
+  </si>
+  <si>
+    <t>08-364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구 경 헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyung Heon Koo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 교 선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyosun Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 성 민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seong Min Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-367</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-367</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유용석 (한자) Yongseok Yoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송준영 (한자) Junyoung Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 형 택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyung Taek Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강영호 (한자) Youngho Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노재료연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산재료과학연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computational Materials Science Laboratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노재료실험실2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBRL Research Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라믹실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceramic Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Advanced Materials Engineering Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 배 연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bae Yeon Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chong, Bum Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 종 범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박 재 윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jae Yun Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕비실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office Pantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핀전자재료실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spintronic Materials Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자패키지실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microelectronic Package Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노재료실험실1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano Materials Lab.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0000FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산실습실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#808080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학과학생회실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students Association - Dept. of Materials Science &amp; Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-385a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-385b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강 의 실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-386a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-386b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-386</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-386</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-401</t>
+  </si>
+  <si>
+    <t>08-402</t>
+  </si>
+  <si>
+    <t>08-404</t>
+  </si>
+  <si>
+    <t>08-401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-405</t>
+  </si>
+  <si>
+    <t>컴퓨터실습실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터 분석실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Data Analytics Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업경영공학과사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Industrial and Management Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-408</t>
+  </si>
+  <si>
+    <t>데이터사이언스연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Science Research Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍 연 찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeon Chan Hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유 종 근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chong Gun Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Advanced Materials Engineering Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이한보람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lee, Han-Bo-Ram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업경영공학과 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 석 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suk-Hwa Chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>08-473</t>
-  </si>
-  <si>
-    <t>스마트팩토리 연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Factory Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산혁신연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Innovative Production Research Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물류시스템연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logistics System Research Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능운영최적화 연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유 우 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woo-Sik Yoo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,31 +1397,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통계적 학습 및 위험분석 연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistical Learning And Risk Analysis Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품시스템공학 연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Systems Engineering Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노동과학연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labor Science Research Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-464</t>
+    <t>08-475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 재 곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jae-Gon Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept. of Materials Sci. &amp; Eng. Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 정 곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeong-Gon Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕 비 실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office Pantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈니스솔루션실습실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business Solution Lab.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산경 컨퍼런스룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME Conference Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡스톤디자인실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capstone Design Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업경영공학과주간학생회실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students Association - Dept. of Industrial and Management Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-482a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-482b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-482</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,559 +1525,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산업경영공학과 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept. of Industrial and Management Engineering Professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김 연 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yon-Soo Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-465</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-466</t>
-  </si>
-  <si>
-    <t>08-467</t>
-  </si>
-  <si>
-    <t>08-468</t>
-  </si>
-  <si>
-    <t>박 기 정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kijung Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김 철 홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chol-Hong Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유 재 홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JaeHong Yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김 병 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byung Soo Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-303</t>
-  </si>
-  <si>
-    <t>08-304</t>
-  </si>
-  <si>
-    <t>08-305</t>
-  </si>
-  <si>
-    <t>08-306</t>
-  </si>
-  <si>
-    <t>08-307</t>
-  </si>
-  <si>
-    <t>08-308</t>
-  </si>
-  <si>
-    <t>08-309</t>
-  </si>
-  <si>
-    <t>08-311</t>
-  </si>
-  <si>
-    <t>08-312</t>
-  </si>
-  <si>
-    <t>08-313</t>
-  </si>
-  <si>
-    <t>08-314</t>
-  </si>
-  <si>
-    <t>08-316</t>
-  </si>
-  <si>
-    <t>08-317</t>
-  </si>
-  <si>
-    <t>08-318</t>
-  </si>
-  <si>
-    <t>08-319</t>
-  </si>
-  <si>
-    <t>08-321</t>
-  </si>
-  <si>
-    <t>전략소재 및 재자원화 실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박막전자재료실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thin film Electronic Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지소재실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정밀기자재실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision Gauge Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신소재공학과사무실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept. of Materials Science and Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seminar Room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후막적층재료실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thick film Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광전재료실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optoelectronic Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략소재및재자원화연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lab. of Strategy Materials and Recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lab. of Strategy Materials and Recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전공학과 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept of Safety Engineering Professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taehoon Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복합재료실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composite Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지소재연구실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Materials Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDT연구실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDT Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕비실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office Pantry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자공학과사무실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept. of Electronics Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초전자회로사무실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Electronic Circuit Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자회로실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electronic Circuit Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티미디어실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multimedia Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈의실(남)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locker (M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강  의  실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lecture Room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-321a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-321b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-117c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-322a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-322b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-361</t>
-  </si>
-  <si>
-    <t>08-362</t>
-  </si>
-  <si>
-    <t>무선및마이크로파통신 연구실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wireless &amp; Microwave Communication Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오전자공학 연구실험실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bioelectronics Lab.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자공학과 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dept. of Electronics Enginerring Professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변상원 변상원 Sangwon Byun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자공학과 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#808080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-365</t>
-  </si>
-  <si>
-    <t>08-366</t>
-  </si>
-  <si>
-    <t>08-367</t>
-  </si>
-  <si>
-    <t>08-368</t>
-  </si>
-  <si>
-    <t>08-369</t>
-  </si>
-  <si>
-    <t>08-370</t>
-  </si>
-  <si>
-    <t>08-371</t>
-  </si>
-  <si>
-    <t>08-372</t>
-  </si>
-  <si>
-    <t>08-373</t>
-  </si>
-  <si>
-    <t>08-374</t>
-  </si>
-  <si>
-    <t>08-375</t>
-  </si>
-  <si>
-    <t>08-376</t>
-  </si>
-  <si>
-    <t>08-377</t>
-  </si>
-  <si>
-    <t>08-378</t>
-  </si>
-  <si>
-    <t>08-379</t>
-  </si>
-  <si>
-    <t>08-380</t>
-  </si>
-  <si>
-    <t>08-381</t>
-  </si>
-  <si>
-    <t>08-382</t>
-  </si>
-  <si>
-    <t>08-383</t>
-  </si>
-  <si>
-    <t>08-384</t>
-  </si>
-  <si>
-    <t>08-385</t>
-  </si>
-  <si>
-    <t>08-386</t>
-  </si>
-  <si>
-    <t>08-387</t>
-  </si>
-  <si>
-    <t>08-388</t>
-  </si>
-  <si>
-    <t>08-389</t>
-  </si>
-  <si>
-    <t>08-390</t>
-  </si>
-  <si>
-    <t>08-391</t>
-  </si>
-  <si>
-    <t>08-392</t>
-  </si>
-  <si>
-    <t>08-393</t>
-  </si>
-  <si>
-    <t>08-394</t>
-  </si>
-  <si>
-    <t>08-395</t>
-  </si>
-  <si>
-    <t>08-396</t>
-  </si>
-  <si>
-    <t>08-397</t>
-  </si>
-  <si>
-    <t>08-398</t>
-  </si>
-  <si>
-    <t>08-399</t>
-  </si>
-  <si>
-    <t>08-364</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-364</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-365</t>
+    <t>#FFFFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1211,6 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1518,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI99"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD67" sqref="AD67"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1540,7 +2043,7 @@
     <col min="14" max="15" width="10.625" customWidth="1"/>
     <col min="17" max="17" width="5.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="5.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="50.25" customWidth="1"/>
+    <col min="19" max="19" width="59.25" customWidth="1"/>
     <col min="20" max="21" width="10.625" customWidth="1"/>
     <col min="23" max="23" width="5.625" style="1" customWidth="1"/>
     <col min="24" max="24" width="5.625" style="4" customWidth="1"/>
@@ -1562,67 +2065,67 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="4"/>
       <c r="W2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="4"/>
       <c r="W3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
       <c r="W4" s="4"/>
       <c r="AC4" s="4"/>
@@ -1727,28 +2230,28 @@
         <v>17</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AF6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI6" s="6"/>
     </row>
@@ -1757,7 +2260,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -1794,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -1859,7 +2362,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -1924,7 +2427,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1989,7 +2492,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -2043,7 +2546,7 @@
         <v>0.45</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>31</v>
@@ -2054,7 +2557,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2119,7 +2622,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -2184,7 +2687,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -2249,7 +2752,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -2314,7 +2817,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -2379,7 +2882,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -2444,7 +2947,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -2509,7 +3012,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -2574,7 +3077,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -2639,7 +3142,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -2693,7 +3196,7 @@
         <v>0.75</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>81</v>
@@ -2704,7 +3207,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -2766,10 +3269,10 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -2781,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2790,7 +3293,7 @@
         <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K23" s="1">
         <v>52</v>
@@ -2799,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N23">
         <v>1.75</v>
@@ -2817,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="S23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T23">
         <v>0.75</v>
@@ -2834,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2896,10 +3399,10 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -2907,64 +3410,64 @@
       <c r="E25" s="4">
         <v>184</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K25" s="1">
         <v>10</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="12">
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1.75</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
-      </c>
-      <c r="P25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>10</v>
-      </c>
-      <c r="R25" s="4">
+        <v>28</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>10</v>
+      </c>
+      <c r="R25" s="12">
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="T25">
         <v>0.75</v>
       </c>
       <c r="U25" t="s">
-        <v>92</v>
-      </c>
-      <c r="V25" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -2972,64 +3475,64 @@
       <c r="E26" s="4">
         <v>184</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K26" s="1">
         <v>10</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="12">
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="N26">
         <v>1.75</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P26" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>10</v>
-      </c>
-      <c r="R26" s="4">
+        <v>28</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>10</v>
+      </c>
+      <c r="R26" s="12">
         <v>29</v>
       </c>
       <c r="S26" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="T26">
         <v>0.75</v>
       </c>
       <c r="U26" t="s">
-        <v>97</v>
-      </c>
-      <c r="V26" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -3037,64 +3540,64 @@
       <c r="E27" s="4">
         <v>184</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1">
         <v>10</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="12">
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="N27">
         <v>1.75</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
-      </c>
-      <c r="P27" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>10</v>
-      </c>
-      <c r="R27" s="4">
+        <v>28</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>10</v>
+      </c>
+      <c r="R27" s="12">
         <v>29</v>
       </c>
       <c r="S27" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="T27">
         <v>0.75</v>
       </c>
       <c r="U27" t="s">
-        <v>97</v>
-      </c>
-      <c r="V27" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3105,8 +3608,8 @@
       <c r="F28" s="4">
         <v>30</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>99</v>
+      <c r="G28" t="s">
+        <v>145</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3115,34 +3618,34 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K28" s="1">
         <v>10</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="12">
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="N28">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>10</v>
-      </c>
-      <c r="R28" s="4">
+        <v>28</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>10</v>
+      </c>
+      <c r="R28" s="12">
         <v>29</v>
       </c>
       <c r="S28" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="T28">
         <v>0.75</v>
@@ -3150,28 +3653,28 @@
       <c r="U28" t="s">
         <v>60</v>
       </c>
-      <c r="V28" t="s">
-        <v>91</v>
+      <c r="V28" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
       </c>
       <c r="E29" s="4">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F29" s="4">
-        <v>30</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3180,51 +3683,51 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K29" s="1">
-        <v>10</v>
-      </c>
-      <c r="L29" s="4">
+        <v>138</v>
+      </c>
+      <c r="L29" s="12">
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="N29">
         <v>1.75</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>10</v>
-      </c>
-      <c r="R29" s="4">
+        <v>28</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>138</v>
+      </c>
+      <c r="R29" s="12">
         <v>29</v>
       </c>
       <c r="S29" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="T29">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="U29" t="s">
         <v>60</v>
       </c>
-      <c r="V29" t="s">
-        <v>91</v>
+      <c r="V29" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -3235,8 +3738,8 @@
       <c r="F30" s="4">
         <v>30</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>101</v>
+      <c r="G30" t="s">
+        <v>147</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3245,63 +3748,63 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1">
         <v>10</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="12">
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1.75</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
-      </c>
-      <c r="P30" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q30" s="1">
+        <v>28</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="12">
         <v>10</v>
       </c>
       <c r="R30" s="12">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="T30">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="U30" t="s">
         <v>60</v>
       </c>
-      <c r="V30" t="s">
-        <v>91</v>
+      <c r="V30" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="4">
         <v>184</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="4">
         <v>30</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>102</v>
+      <c r="G31" t="s">
+        <v>148</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3310,34 +3813,34 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1">
         <v>10</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="12">
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="N31">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P31" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>10</v>
-      </c>
-      <c r="R31" s="4">
+        <v>28</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>10</v>
+      </c>
+      <c r="R31" s="12">
         <v>29</v>
       </c>
       <c r="S31" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="T31">
         <v>0.75</v>
@@ -3345,28 +3848,28 @@
       <c r="U31" t="s">
         <v>60</v>
       </c>
-      <c r="V31" t="s">
-        <v>91</v>
+      <c r="V31" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="4">
         <v>184</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="4">
         <v>30</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>103</v>
+      <c r="G32" t="s">
+        <v>149</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3375,28 +3878,34 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K32" s="1">
         <v>10</v>
       </c>
-      <c r="L32" s="4">
-        <v>10</v>
+      <c r="L32" s="12">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>173</v>
       </c>
       <c r="N32">
         <v>1.75</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>10</v>
-      </c>
-      <c r="R32" s="4">
+        <v>28</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>10</v>
+      </c>
+      <c r="R32" s="12">
         <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>174</v>
       </c>
       <c r="T32">
         <v>0.75</v>
@@ -3404,129 +3913,93 @@
       <c r="U32" t="s">
         <v>60</v>
       </c>
-      <c r="V32" t="s">
-        <v>91</v>
+      <c r="V32" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2">
-        <v>5</v>
-      </c>
-      <c r="E33" s="12">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>184</v>
+      </c>
+      <c r="F33" s="4">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10</v>
+      </c>
+      <c r="L33" s="12">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="12">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33">
-        <v>0.85</v>
-      </c>
-      <c r="I33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="1">
-        <v>12</v>
-      </c>
-      <c r="L33" s="4">
-        <v>10</v>
-      </c>
-      <c r="M33" t="s">
-        <v>120</v>
-      </c>
       <c r="N33">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>12</v>
-      </c>
-      <c r="R33" s="4">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>10</v>
+      </c>
+      <c r="R33" s="12">
+        <v>29</v>
       </c>
       <c r="S33" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="T33">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="U33" t="s">
-        <v>97</v>
-      </c>
-      <c r="V33" t="s">
-        <v>91</v>
-      </c>
-      <c r="W33" s="1">
-        <v>12</v>
-      </c>
-      <c r="X33" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z33">
-        <v>1.5</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD33">
-        <v>27</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF33">
-        <v>0.75</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
       </c>
       <c r="E34" s="12">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="F34" s="12">
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="H34">
         <v>0.85</v>
@@ -3535,52 +4008,52 @@
         <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K34" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L34" s="4">
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N34">
         <v>0.35</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="R34" s="4">
         <v>16</v>
       </c>
       <c r="S34" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="T34">
         <v>0.35</v>
       </c>
       <c r="U34" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
         <v>21</v>
       </c>
       <c r="W34" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="X34" s="4">
         <v>22</v>
       </c>
       <c r="Y34" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="Z34">
         <v>1.5</v>
@@ -3592,19 +4065,19 @@
         <v>21</v>
       </c>
       <c r="AC34" s="1">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="AD34">
         <v>27</v>
       </c>
       <c r="AE34" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="AF34">
         <v>0.75</v>
       </c>
       <c r="AG34" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AH34" t="s">
         <v>21</v>
@@ -3612,313 +4085,205 @@
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2">
-        <v>5</v>
-      </c>
-      <c r="E35" s="12">
-        <v>175</v>
-      </c>
-      <c r="F35" s="12">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>184</v>
+      </c>
+      <c r="F35" s="4">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
       </c>
       <c r="H35">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
       </c>
       <c r="K35" s="1">
-        <v>12</v>
-      </c>
-      <c r="L35" s="4">
+        <v>10</v>
+      </c>
+      <c r="L35" s="12">
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="N35">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>12</v>
-      </c>
-      <c r="R35" s="4">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>10</v>
+      </c>
+      <c r="R35" s="12">
+        <v>29</v>
       </c>
       <c r="S35" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="T35">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="U35" t="s">
         <v>60</v>
       </c>
-      <c r="V35" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="1">
-        <v>12</v>
-      </c>
-      <c r="X35" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z35">
-        <v>1.5</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD35">
-        <v>27</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF35">
-        <v>0.75</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>21</v>
+      <c r="V35" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D36" s="2">
-        <v>5</v>
-      </c>
-      <c r="E36" s="12">
-        <v>175</v>
-      </c>
-      <c r="F36" s="12">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>184</v>
+      </c>
+      <c r="F36" s="4">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
       </c>
       <c r="H36">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
       </c>
       <c r="K36" s="1">
-        <v>12</v>
-      </c>
-      <c r="L36" s="4">
+        <v>10</v>
+      </c>
+      <c r="L36" s="12">
         <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="N36">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>12</v>
-      </c>
-      <c r="R36" s="4">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>10</v>
+      </c>
+      <c r="R36" s="12">
+        <v>29</v>
       </c>
       <c r="S36" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="T36">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="U36" t="s">
         <v>60</v>
       </c>
-      <c r="V36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W36" s="1">
-        <v>12</v>
-      </c>
-      <c r="X36" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z36">
-        <v>1.5</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD36">
-        <v>27</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF36">
-        <v>0.75</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>21</v>
+      <c r="V36" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
-      </c>
-      <c r="E37" s="12">
-        <v>175</v>
-      </c>
-      <c r="F37" s="12">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>184</v>
+      </c>
+      <c r="F37" s="4">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
       </c>
       <c r="H37">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
       </c>
       <c r="K37" s="1">
-        <v>12</v>
-      </c>
-      <c r="L37" s="4">
+        <v>10</v>
+      </c>
+      <c r="L37" s="12">
         <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="N37">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>12</v>
-      </c>
-      <c r="R37" s="4">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>10</v>
+      </c>
+      <c r="R37" s="12">
+        <v>29</v>
       </c>
       <c r="S37" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="T37">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="U37" t="s">
         <v>60</v>
       </c>
-      <c r="V37" t="s">
-        <v>21</v>
-      </c>
-      <c r="W37" s="1">
-        <v>12</v>
-      </c>
-      <c r="X37" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z37">
-        <v>1.5</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD37">
-        <v>27</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF37">
-        <v>0.75</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>21</v>
+      <c r="V37" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
@@ -3930,7 +4295,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3948,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="M38" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="N38">
         <v>1.75</v>
@@ -3966,7 +4331,7 @@
         <v>29</v>
       </c>
       <c r="S38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="T38">
         <v>0.75</v>
@@ -3980,22 +4345,22 @@
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" s="4">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F39" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4004,16 +4369,16 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K39" s="1">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="L39" s="12">
         <v>10</v>
       </c>
       <c r="M39" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="N39">
         <v>1.75</v>
@@ -4022,16 +4387,16 @@
         <v>28</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="12">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="R39" s="12">
         <v>29</v>
       </c>
       <c r="S39" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="T39">
         <v>0.75</v>
@@ -4040,15 +4405,15 @@
         <v>60</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -4060,7 +4425,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4078,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="M40" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="N40">
         <v>1.75</v>
@@ -4096,7 +4461,7 @@
         <v>29</v>
       </c>
       <c r="S40" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="T40">
         <v>0.75</v>
@@ -4110,10 +4475,10 @@
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -4125,7 +4490,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4143,7 +4508,7 @@
         <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N41">
         <v>1.75</v>
@@ -4161,7 +4526,7 @@
         <v>29</v>
       </c>
       <c r="S41" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="T41">
         <v>0.75</v>
@@ -4175,22 +4540,22 @@
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
       </c>
       <c r="E42" s="4">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F42" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4199,16 +4564,16 @@
         <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K42" s="1">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="L42" s="12">
         <v>10</v>
       </c>
       <c r="M42" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N42">
         <v>1.75</v>
@@ -4217,33 +4582,33 @@
         <v>28</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="12">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="R42" s="12">
         <v>29</v>
       </c>
       <c r="S42" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="T42">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="U42" t="s">
         <v>60</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
@@ -4255,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4273,7 +4638,7 @@
         <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="N43">
         <v>1.75</v>
@@ -4291,7 +4656,7 @@
         <v>29</v>
       </c>
       <c r="S43" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="T43">
         <v>0.75</v>
@@ -4305,22 +4670,22 @@
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
       </c>
       <c r="E44" s="4">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F44" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4329,16 +4694,16 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="K44" s="1">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="L44" s="12">
         <v>10</v>
       </c>
       <c r="M44" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N44">
         <v>1.75</v>
@@ -4347,33 +4712,33 @@
         <v>28</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="12">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="R44" s="12">
         <v>29</v>
       </c>
       <c r="S44" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="T44">
         <v>0.75</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -4385,7 +4750,7 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4403,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="M45" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="N45">
         <v>1.75</v>
@@ -4421,7 +4786,7 @@
         <v>29</v>
       </c>
       <c r="S45" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="T45">
         <v>0.75</v>
@@ -4435,22 +4800,22 @@
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" s="4">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F46" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4459,16 +4824,16 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="K46" s="1">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="L46" s="12">
         <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N46">
         <v>1.75</v>
@@ -4477,134 +4842,98 @@
         <v>28</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="12">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="R46" s="12">
         <v>29</v>
       </c>
       <c r="S46" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="T46">
         <v>0.75</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D47" s="2">
-        <v>5</v>
-      </c>
-      <c r="E47" s="12">
-        <v>17</v>
-      </c>
-      <c r="F47" s="12">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>181</v>
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
+        <v>184</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>214</v>
       </c>
       <c r="H47">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="K47" s="1">
-        <v>104</v>
-      </c>
-      <c r="L47" s="4">
+        <v>10</v>
+      </c>
+      <c r="L47" s="12">
         <v>10</v>
       </c>
       <c r="M47" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="N47">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
-      </c>
-      <c r="P47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>104</v>
-      </c>
-      <c r="R47" s="4">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>10</v>
+      </c>
+      <c r="R47" s="12">
+        <v>29</v>
       </c>
       <c r="S47" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="T47">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="U47" t="s">
         <v>60</v>
       </c>
-      <c r="V47" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="1">
-        <v>104</v>
-      </c>
-      <c r="X47" s="4">
-        <v>22</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z47">
-        <v>1.5</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>142</v>
-      </c>
-      <c r="AD47">
-        <v>27</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF47">
-        <v>0.75</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>21</v>
+      <c r="V47" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -4616,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4634,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -4652,10 +4981,10 @@
         <v>29</v>
       </c>
       <c r="S48" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="T48">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="U48" t="s">
         <v>60</v>
@@ -4666,10 +4995,10 @@
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
@@ -4681,7 +5010,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4699,10 +5028,10 @@
         <v>10</v>
       </c>
       <c r="M49" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="N49">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -4717,7 +5046,7 @@
         <v>29</v>
       </c>
       <c r="S49" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="T49">
         <v>0.75</v>
@@ -4731,28 +5060,28 @@
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D50" s="2">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4">
-        <v>184</v>
-      </c>
-      <c r="F50" s="4">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>156</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="12">
+        <v>175</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -4760,259 +5089,403 @@
       <c r="K50" s="1">
         <v>10</v>
       </c>
-      <c r="L50" s="12">
-        <v>10</v>
+      <c r="L50" s="4">
+        <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="N50">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="O50" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>10</v>
-      </c>
-      <c r="R50" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>10</v>
+      </c>
+      <c r="R50" s="4">
+        <v>17.5</v>
       </c>
       <c r="S50" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="T50">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="1">
+        <v>10</v>
+      </c>
+      <c r="X50" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z50">
+        <v>0.6</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>33</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF50">
+        <v>0.6</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4">
-        <v>184</v>
-      </c>
-      <c r="F51" s="4">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>157</v>
+        <v>5</v>
+      </c>
+      <c r="E51" s="12">
+        <v>175</v>
+      </c>
+      <c r="F51" s="12">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
         <v>31</v>
       </c>
       <c r="K51" s="1">
-        <v>10</v>
-      </c>
-      <c r="L51" s="12">
+        <v>12</v>
+      </c>
+      <c r="L51" s="4">
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="N51">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="O51" t="s">
-        <v>28</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>10</v>
-      </c>
-      <c r="R51" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>12</v>
+      </c>
+      <c r="R51" s="4">
+        <v>16</v>
       </c>
       <c r="S51" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="T51">
+        <v>0.35</v>
+      </c>
+      <c r="U51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s">
+        <v>19</v>
+      </c>
+      <c r="W51" s="1">
+        <v>12</v>
+      </c>
+      <c r="X51" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z51">
+        <v>1.5</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD51">
+        <v>27</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF51">
         <v>0.75</v>
       </c>
-      <c r="U51" t="s">
-        <v>60</v>
-      </c>
-      <c r="V51" s="5" t="s">
+      <c r="AG51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4">
-        <v>146</v>
-      </c>
-      <c r="F52" s="4">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>198</v>
+        <v>5</v>
+      </c>
+      <c r="E52" s="12">
+        <v>175</v>
+      </c>
+      <c r="F52" s="12">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K52" s="1">
-        <v>138</v>
-      </c>
-      <c r="L52" s="12">
+        <v>12</v>
+      </c>
+      <c r="L52" s="4">
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="N52">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="O52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>138</v>
-      </c>
-      <c r="R52" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>12</v>
+      </c>
+      <c r="R52" s="4">
+        <v>16</v>
       </c>
       <c r="S52" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="T52">
+        <v>0.35</v>
+      </c>
+      <c r="U52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s">
+        <v>19</v>
+      </c>
+      <c r="W52" s="1">
+        <v>12</v>
+      </c>
+      <c r="X52" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z52">
+        <v>1.5</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD52">
+        <v>27</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF52">
         <v>0.75</v>
       </c>
-      <c r="U52" t="s">
-        <v>60</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>233</v>
+      <c r="AG52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4">
-        <v>184</v>
-      </c>
-      <c r="F53" s="4">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>158</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="12">
+        <v>175</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="K53" s="1">
-        <v>10</v>
-      </c>
-      <c r="L53" s="12">
+        <v>12</v>
+      </c>
+      <c r="L53" s="4">
         <v>10</v>
       </c>
       <c r="M53" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="O53" t="s">
-        <v>28</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="12">
-        <v>10</v>
-      </c>
-      <c r="R53" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>12</v>
+      </c>
+      <c r="R53" s="4">
+        <v>16</v>
       </c>
       <c r="S53" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="T53">
+        <v>0.35</v>
+      </c>
+      <c r="U53" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s">
+        <v>19</v>
+      </c>
+      <c r="W53" s="1">
+        <v>12</v>
+      </c>
+      <c r="X53" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z53">
+        <v>1.5</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD53">
+        <v>27</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF53">
         <v>0.75</v>
       </c>
-      <c r="U53" t="s">
-        <v>60</v>
-      </c>
-      <c r="V53" s="5" t="s">
+      <c r="AG53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4">
-        <v>184</v>
-      </c>
-      <c r="F54" s="4">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>159</v>
+        <v>5</v>
+      </c>
+      <c r="E54" s="12">
+        <v>175</v>
+      </c>
+      <c r="F54" s="12">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
         <v>31</v>
@@ -5020,64 +5493,100 @@
       <c r="K54" s="1">
         <v>10</v>
       </c>
-      <c r="L54" s="12">
-        <v>10</v>
+      <c r="L54" s="4">
+        <v>9</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="N54">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="O54" t="s">
-        <v>28</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>10</v>
-      </c>
-      <c r="R54" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>10</v>
+      </c>
+      <c r="R54" s="4">
+        <v>17.5</v>
       </c>
       <c r="S54" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="T54">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
-      </c>
-      <c r="V54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W54" s="1">
+        <v>10</v>
+      </c>
+      <c r="X54" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z54">
+        <v>0.6</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>33</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF54">
+        <v>0.6</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2">
-        <v>3</v>
-      </c>
-      <c r="E55" s="4">
-        <v>184</v>
-      </c>
-      <c r="F55" s="4">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>160</v>
+        <v>5</v>
+      </c>
+      <c r="E55" s="12">
+        <v>175</v>
+      </c>
+      <c r="F55" s="12">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -5085,176 +5594,284 @@
       <c r="K55" s="1">
         <v>10</v>
       </c>
-      <c r="L55" s="12">
-        <v>10</v>
+      <c r="L55" s="4">
+        <v>9</v>
       </c>
       <c r="M55" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="O55" t="s">
-        <v>28</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q55" s="12">
-        <v>10</v>
-      </c>
-      <c r="R55" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>10</v>
+      </c>
+      <c r="R55" s="4">
+        <v>17.5</v>
       </c>
       <c r="S55" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="T55">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
-      </c>
-      <c r="V55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s">
+        <v>19</v>
+      </c>
+      <c r="W55" s="1">
+        <v>10</v>
+      </c>
+      <c r="X55" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z55">
+        <v>0.6</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>33</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF55">
+        <v>0.6</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2">
-        <v>3</v>
-      </c>
-      <c r="E56" s="4">
-        <v>184</v>
-      </c>
-      <c r="F56" s="4">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E56" s="12">
+        <v>175</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
       </c>
       <c r="K56" s="1">
-        <v>10</v>
-      </c>
-      <c r="L56" s="12">
+        <v>12</v>
+      </c>
+      <c r="L56" s="4">
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="N56">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" s="12">
-        <v>10</v>
-      </c>
-      <c r="R56" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>12</v>
+      </c>
+      <c r="R56" s="4">
+        <v>16</v>
       </c>
       <c r="S56" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="T56">
+        <v>0.35</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W56" s="1">
+        <v>12</v>
+      </c>
+      <c r="X56" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z56">
+        <v>1.5</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD56">
+        <v>27</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF56">
         <v>0.75</v>
       </c>
-      <c r="U56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V56" s="5" t="s">
+      <c r="AG56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2">
-        <v>3</v>
-      </c>
-      <c r="E57" s="4">
-        <v>146</v>
-      </c>
-      <c r="F57" s="4">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>162</v>
+        <v>5</v>
+      </c>
+      <c r="E57" s="12">
+        <v>175</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="K57" s="1">
-        <v>138</v>
-      </c>
-      <c r="L57" s="12">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="L57" s="4">
+        <v>9</v>
       </c>
       <c r="M57" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="N57">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="O57" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q57" s="12">
-        <v>138</v>
-      </c>
-      <c r="R57" s="12">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="P57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>10</v>
+      </c>
+      <c r="R57" s="4">
+        <v>17.5</v>
       </c>
       <c r="S57" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="T57">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="U57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="V57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W57" s="1">
+        <v>10</v>
+      </c>
+      <c r="X57" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z57">
+        <v>0.6</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>33</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF57">
+        <v>0.6</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -5266,7 +5883,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5284,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="N58">
         <v>1.75</v>
@@ -5302,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="S58" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="T58">
         <v>0.75</v>
@@ -5316,22 +5933,22 @@
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2">
         <v>3</v>
       </c>
       <c r="E59" s="4">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5340,16 +5957,16 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="K59" s="1">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="L59" s="12">
         <v>10</v>
       </c>
       <c r="M59" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="N59">
         <v>1.75</v>
@@ -5358,33 +5975,33 @@
         <v>28</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="12">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="R59" s="12">
         <v>29</v>
       </c>
       <c r="S59" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="T59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="U59" t="s">
         <v>60</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -5396,7 +6013,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5405,7 +6022,7 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="K60" s="1">
         <v>10</v>
@@ -5414,7 +6031,7 @@
         <v>10</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="N60">
         <v>1.75</v>
@@ -5432,7 +6049,7 @@
         <v>29</v>
       </c>
       <c r="S60" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="T60">
         <v>0.75</v>
@@ -5446,10 +6063,10 @@
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -5461,7 +6078,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5479,10 +6096,10 @@
         <v>10</v>
       </c>
       <c r="M61" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="N61">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
@@ -5497,10 +6114,10 @@
         <v>29</v>
       </c>
       <c r="S61" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="T61">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="U61" t="s">
         <v>60</v>
@@ -5511,75 +6128,111 @@
     </row>
     <row r="62" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
-      </c>
-      <c r="E62" s="4">
-        <v>184</v>
-      </c>
-      <c r="F62" s="4">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>219</v>
+        <v>5</v>
+      </c>
+      <c r="E62" s="12">
+        <v>175</v>
+      </c>
+      <c r="F62" s="12">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J62" t="s">
         <v>31</v>
       </c>
       <c r="K62" s="1">
-        <v>10</v>
-      </c>
-      <c r="L62" s="12">
+        <v>12</v>
+      </c>
+      <c r="L62" s="4">
         <v>10</v>
       </c>
       <c r="M62" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="N62">
+        <v>0.35</v>
+      </c>
+      <c r="O62" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>12</v>
+      </c>
+      <c r="R62" s="4">
+        <v>16</v>
+      </c>
+      <c r="S62" t="s">
+        <v>269</v>
+      </c>
+      <c r="T62">
+        <v>0.35</v>
+      </c>
+      <c r="U62" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" t="s">
+        <v>19</v>
+      </c>
+      <c r="W62" s="1">
+        <v>12</v>
+      </c>
+      <c r="X62" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z62">
         <v>1.5</v>
       </c>
-      <c r="O62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q62" s="12">
-        <v>10</v>
-      </c>
-      <c r="R62" s="12">
-        <v>29</v>
-      </c>
-      <c r="S62" t="s">
-        <v>223</v>
-      </c>
-      <c r="T62">
+      <c r="AA62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD62">
+        <v>27</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF62">
         <v>0.75</v>
       </c>
-      <c r="U62" t="s">
-        <v>60</v>
-      </c>
-      <c r="V62" s="5" t="s">
+      <c r="AG62" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
@@ -5591,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="H63">
         <v>0.85</v>
@@ -5606,19 +6259,19 @@
         <v>12</v>
       </c>
       <c r="L63" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="N63">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="O63" t="s">
         <v>36</v>
       </c>
       <c r="P63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q63" s="1">
         <v>12</v>
@@ -5627,16 +6280,16 @@
         <v>16</v>
       </c>
       <c r="S63" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="T63">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="U63" t="s">
         <v>36</v>
       </c>
       <c r="V63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W63" s="1">
         <v>12</v>
@@ -5645,39 +6298,39 @@
         <v>22</v>
       </c>
       <c r="Y63" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="Z63">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AA63" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="AB63" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AC63" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD63" s="4">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="AD63">
+        <v>27</v>
       </c>
       <c r="AE63" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="AF63">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AG63" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AH63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>38</v>
@@ -5686,13 +6339,13 @@
         <v>5</v>
       </c>
       <c r="E64" s="12">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="F64" s="12">
         <v>2</v>
       </c>
-      <c r="G64" s="12" t="s">
-        <v>271</v>
+      <c r="G64" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -5701,16 +6354,19 @@
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="K64" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L64" s="4">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="M64" t="s">
+        <v>272</v>
       </c>
       <c r="N64">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="O64" t="s">
         <v>36</v>
@@ -5719,13 +6375,16 @@
         <v>19</v>
       </c>
       <c r="Q64" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="R64" s="4">
-        <v>16</v>
+        <v>17.5</v>
+      </c>
+      <c r="S64" t="s">
+        <v>269</v>
       </c>
       <c r="T64">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="U64" t="s">
         <v>36</v>
@@ -5734,13 +6393,16 @@
         <v>19</v>
       </c>
       <c r="W64" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="X64" s="4">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>234</v>
       </c>
       <c r="Z64">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AA64" t="s">
         <v>36</v>
@@ -5749,10 +6411,13 @@
         <v>19</v>
       </c>
       <c r="AC64" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="AD64" s="4">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>252</v>
       </c>
       <c r="AF64">
         <v>0.6</v>
@@ -5766,7 +6431,7 @@
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>38</v>
@@ -5780,8 +6445,8 @@
       <c r="F65" s="12">
         <v>2</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>272</v>
+      <c r="G65" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="H65">
         <v>0.85</v>
@@ -5798,8 +6463,11 @@
       <c r="L65" s="4">
         <v>10</v>
       </c>
+      <c r="M65" t="s">
+        <v>272</v>
+      </c>
       <c r="N65">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="O65" t="s">
         <v>36</v>
@@ -5813,8 +6481,11 @@
       <c r="R65" s="4">
         <v>16</v>
       </c>
+      <c r="S65" t="s">
+        <v>269</v>
+      </c>
       <c r="T65">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="U65" t="s">
         <v>36</v>
@@ -5826,28 +6497,34 @@
         <v>12</v>
       </c>
       <c r="X65" s="4">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>283</v>
       </c>
       <c r="Z65">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="AA65" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD65">
+        <v>27</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF65">
+        <v>0.75</v>
+      </c>
+      <c r="AG65" t="s">
         <v>36</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD65" s="4">
-        <v>24</v>
-      </c>
-      <c r="AF65">
-        <v>0.6</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>28</v>
       </c>
       <c r="AH65" t="s">
         <v>19</v>
@@ -5855,172 +6532,3099 @@
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>236</v>
+        <v>285</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4">
+        <v>184</v>
+      </c>
+      <c r="F66" s="4">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>285</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="1">
+        <v>10</v>
+      </c>
+      <c r="L66" s="12">
+        <v>10</v>
+      </c>
+      <c r="M66" t="s">
+        <v>286</v>
+      </c>
+      <c r="N66">
+        <v>1.75</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>10</v>
+      </c>
+      <c r="R66" s="12">
+        <v>29</v>
+      </c>
+      <c r="S66" t="s">
+        <v>287</v>
+      </c>
+      <c r="T66">
+        <v>0.75</v>
+      </c>
+      <c r="U66" t="s">
+        <v>60</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="4">
+        <v>184</v>
+      </c>
+      <c r="F67" s="4">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="1">
+        <v>10</v>
+      </c>
+      <c r="L67" s="12">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>289</v>
+      </c>
+      <c r="N67">
+        <v>1.75</v>
+      </c>
+      <c r="O67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>10</v>
+      </c>
+      <c r="R67" s="12">
+        <v>29</v>
+      </c>
+      <c r="S67" t="s">
+        <v>290</v>
+      </c>
+      <c r="T67">
+        <v>0.75</v>
+      </c>
+      <c r="U67" t="s">
+        <v>60</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>238</v>
+        <v>292</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4">
+        <v>184</v>
+      </c>
+      <c r="F68" s="4">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="1">
+        <v>10</v>
+      </c>
+      <c r="L68" s="12">
+        <v>10</v>
+      </c>
+      <c r="M68" t="s">
+        <v>293</v>
+      </c>
+      <c r="N68">
+        <v>1.75</v>
+      </c>
+      <c r="O68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>10</v>
+      </c>
+      <c r="R68" s="12">
+        <v>29</v>
+      </c>
+      <c r="S68" t="s">
+        <v>294</v>
+      </c>
+      <c r="T68">
+        <v>0.75</v>
+      </c>
+      <c r="U68" t="s">
+        <v>60</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>239</v>
+        <v>295</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4">
+        <v>184</v>
+      </c>
+      <c r="F69" s="4">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="1">
+        <v>10</v>
+      </c>
+      <c r="L69" s="12">
+        <v>10</v>
+      </c>
+      <c r="M69" t="s">
+        <v>296</v>
+      </c>
+      <c r="N69">
+        <v>1.75</v>
+      </c>
+      <c r="O69" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>10</v>
+      </c>
+      <c r="R69" s="12">
+        <v>29</v>
+      </c>
+      <c r="S69" t="s">
+        <v>297</v>
+      </c>
+      <c r="T69">
+        <v>0.75</v>
+      </c>
+      <c r="U69" t="s">
+        <v>60</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12">
+        <v>184</v>
+      </c>
+      <c r="F70" s="12">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>300</v>
+      </c>
+      <c r="J70" t="s">
+        <v>301</v>
+      </c>
+      <c r="K70" s="1">
+        <v>10</v>
+      </c>
+      <c r="L70" s="12">
+        <v>10</v>
+      </c>
+      <c r="M70" t="s">
+        <v>302</v>
+      </c>
+      <c r="N70">
+        <v>1.75</v>
+      </c>
+      <c r="O70" t="s">
+        <v>303</v>
+      </c>
+      <c r="P70" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>10</v>
+      </c>
+      <c r="R70" s="12">
+        <v>29</v>
+      </c>
+      <c r="S70" t="s">
+        <v>305</v>
+      </c>
+      <c r="T70">
+        <v>0.75</v>
+      </c>
+      <c r="U70" t="s">
+        <v>306</v>
+      </c>
+      <c r="V70" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>241</v>
+        <v>308</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4">
+        <v>148</v>
+      </c>
+      <c r="F71" s="4">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="1">
+        <v>140</v>
+      </c>
+      <c r="L71" s="12">
+        <v>10</v>
+      </c>
+      <c r="M71" t="s">
+        <v>310</v>
+      </c>
+      <c r="N71">
+        <v>1.6</v>
+      </c>
+      <c r="O71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>140</v>
+      </c>
+      <c r="R71" s="12">
+        <v>29</v>
+      </c>
+      <c r="S71" t="s">
+        <v>311</v>
+      </c>
+      <c r="T71">
+        <v>0.4</v>
+      </c>
+      <c r="U71" t="s">
+        <v>389</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>313</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4">
+        <v>148</v>
+      </c>
+      <c r="F72" s="4">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>315</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="1">
+        <v>140</v>
+      </c>
+      <c r="L72" s="12">
+        <v>10</v>
+      </c>
+      <c r="M72" t="s">
+        <v>204</v>
+      </c>
+      <c r="N72">
+        <v>1.75</v>
+      </c>
+      <c r="O72" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>140</v>
+      </c>
+      <c r="R72" s="12">
+        <v>29</v>
+      </c>
+      <c r="S72" t="s">
+        <v>312</v>
+      </c>
+      <c r="T72">
+        <v>0.4</v>
+      </c>
+      <c r="U72" t="s">
+        <v>28</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>314</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>184</v>
+      </c>
+      <c r="F73" s="4">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10</v>
+      </c>
+      <c r="L73" s="12">
+        <v>10</v>
+      </c>
+      <c r="M73" t="s">
+        <v>316</v>
+      </c>
+      <c r="N73">
+        <v>1.75</v>
+      </c>
+      <c r="O73" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>10</v>
+      </c>
+      <c r="R73" s="12">
+        <v>29</v>
+      </c>
+      <c r="S73" t="s">
+        <v>205</v>
+      </c>
+      <c r="T73">
+        <v>0.75</v>
+      </c>
+      <c r="U73" t="s">
+        <v>60</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>317</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4">
+        <v>148</v>
+      </c>
+      <c r="F74" s="4">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>319</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="1">
+        <v>140</v>
+      </c>
+      <c r="L74" s="12">
+        <v>10</v>
+      </c>
+      <c r="M74" t="s">
+        <v>204</v>
+      </c>
+      <c r="N74">
+        <v>1.75</v>
+      </c>
+      <c r="O74" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>140</v>
+      </c>
+      <c r="R74" s="12">
+        <v>29</v>
+      </c>
+      <c r="S74" t="s">
+        <v>312</v>
+      </c>
+      <c r="T74">
+        <v>0.4</v>
+      </c>
+      <c r="U74" t="s">
+        <v>28</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>245</v>
+        <v>318</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4">
+        <v>184</v>
+      </c>
+      <c r="F75" s="4">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>320</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="1">
+        <v>10</v>
+      </c>
+      <c r="L75" s="12">
+        <v>10</v>
+      </c>
+      <c r="M75" t="s">
+        <v>316</v>
+      </c>
+      <c r="N75">
+        <v>1.75</v>
+      </c>
+      <c r="O75" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>10</v>
+      </c>
+      <c r="R75" s="12">
+        <v>29</v>
+      </c>
+      <c r="S75" t="s">
+        <v>205</v>
+      </c>
+      <c r="T75">
+        <v>0.75</v>
+      </c>
+      <c r="U75" t="s">
+        <v>60</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>321</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="4">
+        <v>184</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10</v>
+      </c>
+      <c r="L76" s="4">
+        <v>10</v>
+      </c>
+      <c r="M76" t="s">
+        <v>326</v>
+      </c>
+      <c r="N76">
+        <v>1.75</v>
+      </c>
+      <c r="O76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>10</v>
+      </c>
+      <c r="R76" s="4">
+        <v>29</v>
+      </c>
+      <c r="S76" t="s">
+        <v>327</v>
+      </c>
+      <c r="T76">
+        <v>0.75</v>
+      </c>
+      <c r="U76" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>322</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4">
+        <v>184</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>322</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="1">
+        <v>10</v>
+      </c>
+      <c r="L77" s="4">
+        <v>10</v>
+      </c>
+      <c r="M77" t="s">
+        <v>328</v>
+      </c>
+      <c r="N77">
+        <v>1.75</v>
+      </c>
+      <c r="O77" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>10</v>
+      </c>
+      <c r="R77" s="4">
+        <v>29</v>
+      </c>
+      <c r="S77" t="s">
+        <v>329</v>
+      </c>
+      <c r="T77">
+        <v>0.75</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>248</v>
+        <v>330</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
+      <c r="E78" s="4">
+        <v>148</v>
+      </c>
+      <c r="F78" s="4">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>58</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="1">
+        <v>140</v>
+      </c>
+      <c r="L78" s="12">
+        <v>10</v>
+      </c>
+      <c r="M78" t="s">
+        <v>332</v>
+      </c>
+      <c r="N78">
+        <v>1.75</v>
+      </c>
+      <c r="O78" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q78" s="12">
+        <v>140</v>
+      </c>
+      <c r="R78" s="12">
+        <v>29</v>
+      </c>
+      <c r="S78" t="s">
+        <v>333</v>
+      </c>
+      <c r="T78">
+        <v>0.6</v>
+      </c>
+      <c r="U78" t="s">
+        <v>60</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>323</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="4">
+        <v>184</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>323</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10</v>
+      </c>
+      <c r="L79" s="4">
+        <v>10</v>
+      </c>
+      <c r="M79" t="s">
+        <v>75</v>
+      </c>
+      <c r="N79">
+        <v>1.75</v>
+      </c>
+      <c r="O79" t="s">
+        <v>28</v>
+      </c>
+      <c r="P79" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>10</v>
+      </c>
+      <c r="R79" s="4">
+        <v>29</v>
+      </c>
+      <c r="S79" t="s">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.75</v>
+      </c>
+      <c r="U79" t="s">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4">
+        <v>184</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>325</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s">
+        <v>89</v>
+      </c>
+      <c r="K80" s="1">
+        <v>10</v>
+      </c>
+      <c r="L80" s="4">
+        <v>10</v>
+      </c>
+      <c r="M80" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80">
+        <v>1.75</v>
+      </c>
+      <c r="O80" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>10</v>
+      </c>
+      <c r="R80" s="4">
+        <v>29</v>
+      </c>
+      <c r="S80" t="s">
+        <v>107</v>
+      </c>
+      <c r="T80">
+        <v>0.75</v>
+      </c>
+      <c r="U80" t="s">
+        <v>92</v>
+      </c>
+      <c r="V80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="4">
+        <v>184</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>93</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="1">
+        <v>10</v>
+      </c>
+      <c r="L81" s="4">
+        <v>10</v>
+      </c>
+      <c r="M81" t="s">
+        <v>111</v>
+      </c>
+      <c r="N81">
+        <v>1.75</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>10</v>
+      </c>
+      <c r="R81" s="4">
+        <v>29</v>
+      </c>
+      <c r="S81" t="s">
+        <v>112</v>
+      </c>
+      <c r="T81">
+        <v>0.75</v>
+      </c>
+      <c r="U81" t="s">
+        <v>96</v>
+      </c>
+      <c r="V81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4">
+        <v>184</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" t="s">
+        <v>89</v>
+      </c>
+      <c r="K82" s="1">
+        <v>10</v>
+      </c>
+      <c r="L82" s="4">
+        <v>10</v>
+      </c>
+      <c r="M82" t="s">
+        <v>113</v>
+      </c>
+      <c r="N82">
+        <v>1.75</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>10</v>
+      </c>
+      <c r="R82" s="4">
+        <v>29</v>
+      </c>
+      <c r="S82" t="s">
+        <v>114</v>
+      </c>
+      <c r="T82">
+        <v>0.75</v>
+      </c>
+      <c r="U82" t="s">
+        <v>96</v>
+      </c>
+      <c r="V82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4">
+        <v>184</v>
+      </c>
+      <c r="F83">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>334</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="1">
+        <v>10</v>
+      </c>
+      <c r="L83" s="4">
+        <v>10</v>
+      </c>
+      <c r="M83" t="s">
+        <v>335</v>
+      </c>
+      <c r="N83">
+        <v>1.75</v>
+      </c>
+      <c r="O83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>10</v>
+      </c>
+      <c r="R83" s="4">
+        <v>29</v>
+      </c>
+      <c r="S83" t="s">
+        <v>336</v>
+      </c>
+      <c r="T83">
+        <v>0.75</v>
+      </c>
+      <c r="U83" t="s">
+        <v>36</v>
+      </c>
+      <c r="V83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+      <c r="E91" s="12">
+        <v>175</v>
+      </c>
+      <c r="F91" s="12">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H91">
+        <v>0.85</v>
+      </c>
+      <c r="I91" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="1">
+        <v>12</v>
+      </c>
+      <c r="L91" s="4">
+        <v>10</v>
+      </c>
+      <c r="M91" t="s">
+        <v>222</v>
+      </c>
+      <c r="N91">
+        <v>0.35</v>
+      </c>
+      <c r="O91" t="s">
+        <v>36</v>
+      </c>
+      <c r="P91" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>12</v>
+      </c>
+      <c r="R91" s="4">
+        <v>16</v>
+      </c>
+      <c r="S91" t="s">
+        <v>223</v>
+      </c>
+      <c r="T91">
+        <v>0.35</v>
+      </c>
+      <c r="U91" t="s">
+        <v>36</v>
+      </c>
+      <c r="V91" t="s">
+        <v>19</v>
+      </c>
+      <c r="W91" s="1">
+        <v>12</v>
+      </c>
+      <c r="X91" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z91">
+        <v>1.5</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD91">
+        <v>27</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF91">
+        <v>0.75</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="2">
+        <v>5</v>
+      </c>
+      <c r="E92" s="12">
+        <v>175</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H92">
+        <v>0.85</v>
+      </c>
+      <c r="I92" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="1">
+        <v>12</v>
+      </c>
+      <c r="L92" s="4">
+        <v>10</v>
+      </c>
+      <c r="M92" t="s">
+        <v>222</v>
+      </c>
+      <c r="N92">
+        <v>0.35</v>
+      </c>
+      <c r="O92" t="s">
+        <v>36</v>
+      </c>
+      <c r="P92" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>12</v>
+      </c>
+      <c r="R92" s="4">
+        <v>16</v>
+      </c>
+      <c r="S92" t="s">
+        <v>223</v>
+      </c>
+      <c r="T92">
+        <v>0.35</v>
+      </c>
+      <c r="U92" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" t="s">
+        <v>19</v>
+      </c>
+      <c r="W92" s="1">
+        <v>12</v>
+      </c>
+      <c r="X92" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z92">
+        <v>1.5</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD92">
+        <v>27</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF92">
+        <v>0.75</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="12">
+        <v>175</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H93">
+        <v>0.85</v>
+      </c>
+      <c r="I93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="1">
+        <v>12</v>
+      </c>
+      <c r="L93" s="4">
+        <v>10</v>
+      </c>
+      <c r="M93" t="s">
+        <v>272</v>
+      </c>
+      <c r="N93">
+        <v>0.35</v>
+      </c>
+      <c r="O93" t="s">
+        <v>36</v>
+      </c>
+      <c r="P93" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>12</v>
+      </c>
+      <c r="R93" s="4">
+        <v>16</v>
+      </c>
+      <c r="S93" t="s">
+        <v>346</v>
+      </c>
+      <c r="T93">
+        <v>0.35</v>
+      </c>
+      <c r="U93" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93" t="s">
+        <v>19</v>
+      </c>
+      <c r="W93" s="1">
+        <v>12</v>
+      </c>
+      <c r="X93" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z93">
+        <v>1.5</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD93">
+        <v>27</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF93">
+        <v>0.75</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5</v>
+      </c>
+      <c r="E94" s="12">
+        <v>175</v>
+      </c>
+      <c r="F94" s="12">
+        <v>2</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94">
+        <v>0.85</v>
+      </c>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+      <c r="J94" t="s">
+        <v>89</v>
+      </c>
+      <c r="K94" s="1">
+        <v>12</v>
+      </c>
+      <c r="L94" s="4">
+        <v>10</v>
+      </c>
+      <c r="M94" t="s">
+        <v>117</v>
+      </c>
+      <c r="N94">
+        <v>0.35</v>
+      </c>
+      <c r="O94" t="s">
+        <v>96</v>
+      </c>
+      <c r="P94" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>12</v>
+      </c>
+      <c r="R94" s="4">
+        <v>16</v>
+      </c>
+      <c r="S94" t="s">
+        <v>118</v>
+      </c>
+      <c r="T94">
+        <v>0.35</v>
+      </c>
+      <c r="U94" t="s">
+        <v>96</v>
+      </c>
+      <c r="V94" t="s">
+        <v>91</v>
+      </c>
+      <c r="W94" s="1">
+        <v>12</v>
+      </c>
+      <c r="X94" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z94">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD94">
+        <v>27</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF94">
+        <v>0.75</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+      <c r="E95" s="12">
+        <v>175</v>
+      </c>
+      <c r="F95" s="12">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H95">
+        <v>0.85</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="1">
+        <v>12</v>
+      </c>
+      <c r="L95" s="4">
+        <v>10</v>
+      </c>
+      <c r="M95" t="s">
+        <v>117</v>
+      </c>
+      <c r="N95">
+        <v>0.35</v>
+      </c>
+      <c r="O95" t="s">
+        <v>36</v>
+      </c>
+      <c r="P95" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>12</v>
+      </c>
+      <c r="R95" s="4">
+        <v>16</v>
+      </c>
+      <c r="S95" t="s">
+        <v>118</v>
+      </c>
+      <c r="T95">
+        <v>0.35</v>
+      </c>
+      <c r="U95" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" t="s">
+        <v>21</v>
+      </c>
+      <c r="W95" s="1">
+        <v>12</v>
+      </c>
+      <c r="X95" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z95">
+        <v>1.5</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD95">
+        <v>27</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF95">
+        <v>0.75</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5</v>
+      </c>
+      <c r="E96" s="12">
+        <v>175</v>
+      </c>
+      <c r="F96" s="12">
+        <v>2</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96">
+        <v>0.85</v>
+      </c>
+      <c r="I96" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="1">
+        <v>12</v>
+      </c>
+      <c r="L96" s="4">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96">
+        <v>0.35</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>12</v>
+      </c>
+      <c r="R96" s="4">
+        <v>16</v>
+      </c>
+      <c r="S96" t="s">
+        <v>118</v>
+      </c>
+      <c r="T96">
+        <v>0.35</v>
+      </c>
+      <c r="U96" t="s">
+        <v>60</v>
+      </c>
+      <c r="V96" t="s">
+        <v>21</v>
+      </c>
+      <c r="W96" s="1">
+        <v>12</v>
+      </c>
+      <c r="X96" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z96">
+        <v>1.5</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD96">
+        <v>27</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF96">
+        <v>0.75</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5</v>
+      </c>
+      <c r="E97" s="12">
+        <v>175</v>
+      </c>
+      <c r="F97" s="12">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97">
+        <v>0.85</v>
+      </c>
+      <c r="I97" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="1">
+        <v>12</v>
+      </c>
+      <c r="L97" s="4">
+        <v>10</v>
+      </c>
+      <c r="M97" t="s">
+        <v>117</v>
+      </c>
+      <c r="N97">
+        <v>0.35</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>12</v>
+      </c>
+      <c r="R97" s="4">
+        <v>16</v>
+      </c>
+      <c r="S97" t="s">
+        <v>118</v>
+      </c>
+      <c r="T97">
+        <v>0.35</v>
+      </c>
+      <c r="U97" t="s">
+        <v>60</v>
+      </c>
+      <c r="V97" t="s">
+        <v>21</v>
+      </c>
+      <c r="W97" s="1">
+        <v>12</v>
+      </c>
+      <c r="X97" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z97">
+        <v>1.5</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD97">
+        <v>27</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF97">
+        <v>0.75</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="E98" s="12">
+        <v>175</v>
+      </c>
+      <c r="F98" s="12">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98">
+        <v>0.85</v>
+      </c>
+      <c r="I98" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="1">
+        <v>12</v>
+      </c>
+      <c r="L98" s="4">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>117</v>
+      </c>
+      <c r="N98">
+        <v>0.35</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>12</v>
+      </c>
+      <c r="R98" s="4">
+        <v>16</v>
+      </c>
+      <c r="S98" t="s">
+        <v>118</v>
+      </c>
+      <c r="T98">
+        <v>0.35</v>
+      </c>
+      <c r="U98" t="s">
+        <v>60</v>
+      </c>
+      <c r="V98" t="s">
+        <v>21</v>
+      </c>
+      <c r="W98" s="1">
+        <v>12</v>
+      </c>
+      <c r="X98" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z98">
+        <v>1.5</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD98">
+        <v>27</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF98">
+        <v>0.75</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>269</v>
+        <v>98</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="4">
+        <v>184</v>
+      </c>
+      <c r="F99" s="4">
+        <v>30</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>58</v>
+      </c>
+      <c r="J99" t="s">
+        <v>89</v>
+      </c>
+      <c r="K99" s="1">
+        <v>10</v>
+      </c>
+      <c r="L99" s="4">
+        <v>10</v>
+      </c>
+      <c r="M99" t="s">
+        <v>109</v>
+      </c>
+      <c r="N99">
+        <v>1.35</v>
+      </c>
+      <c r="O99" t="s">
+        <v>90</v>
+      </c>
+      <c r="P99" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>10</v>
+      </c>
+      <c r="R99" s="4">
+        <v>29</v>
+      </c>
+      <c r="S99" t="s">
+        <v>110</v>
+      </c>
+      <c r="T99">
+        <v>0.6</v>
+      </c>
+      <c r="U99" t="s">
+        <v>60</v>
+      </c>
+      <c r="V99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4">
+        <v>184</v>
+      </c>
+      <c r="F100" s="4">
+        <v>30</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" t="s">
+        <v>89</v>
+      </c>
+      <c r="K100" s="1">
+        <v>10</v>
+      </c>
+      <c r="L100" s="4">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>102</v>
+      </c>
+      <c r="N100">
+        <v>1.75</v>
+      </c>
+      <c r="O100" t="s">
+        <v>90</v>
+      </c>
+      <c r="P100" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>10</v>
+      </c>
+      <c r="R100" s="4">
+        <v>29</v>
+      </c>
+      <c r="S100" t="s">
+        <v>103</v>
+      </c>
+      <c r="T100">
+        <v>0.75</v>
+      </c>
+      <c r="U100" t="s">
+        <v>60</v>
+      </c>
+      <c r="V100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" s="4">
+        <v>184</v>
+      </c>
+      <c r="F101" s="4">
+        <v>30</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J101" t="s">
+        <v>89</v>
+      </c>
+      <c r="K101" s="1">
+        <v>10</v>
+      </c>
+      <c r="L101" s="4">
+        <v>10</v>
+      </c>
+      <c r="M101" t="s">
+        <v>104</v>
+      </c>
+      <c r="N101">
+        <v>1.75</v>
+      </c>
+      <c r="O101" t="s">
+        <v>90</v>
+      </c>
+      <c r="P101" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>10</v>
+      </c>
+      <c r="R101" s="12">
+        <v>29</v>
+      </c>
+      <c r="S101" t="s">
+        <v>105</v>
+      </c>
+      <c r="T101">
+        <v>0.65</v>
+      </c>
+      <c r="U101" t="s">
+        <v>60</v>
+      </c>
+      <c r="V101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12">
+        <v>184</v>
+      </c>
+      <c r="F102" s="12">
+        <v>30</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" t="s">
+        <v>89</v>
+      </c>
+      <c r="K102" s="1">
+        <v>10</v>
+      </c>
+      <c r="L102" s="4">
+        <v>10</v>
+      </c>
+      <c r="M102" t="s">
+        <v>108</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>10</v>
+      </c>
+      <c r="R102" s="4">
+        <v>29</v>
+      </c>
+      <c r="S102" t="s">
+        <v>357</v>
+      </c>
+      <c r="T102">
+        <v>0.75</v>
+      </c>
+      <c r="U102" t="s">
+        <v>60</v>
+      </c>
+      <c r="V102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="2">
+        <v>5</v>
+      </c>
+      <c r="E103" s="12">
+        <v>175</v>
+      </c>
+      <c r="F103" s="12">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H103">
+        <v>0.85</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="1">
+        <v>12</v>
+      </c>
+      <c r="L103" s="4">
+        <v>10</v>
+      </c>
+      <c r="M103" t="s">
+        <v>350</v>
+      </c>
+      <c r="N103">
+        <v>0.35</v>
+      </c>
+      <c r="O103" t="s">
+        <v>36</v>
+      </c>
+      <c r="P103" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>12</v>
+      </c>
+      <c r="R103" s="4">
+        <v>16</v>
+      </c>
+      <c r="S103" t="s">
+        <v>118</v>
+      </c>
+      <c r="T103">
+        <v>0.35</v>
+      </c>
+      <c r="U103" t="s">
+        <v>36</v>
+      </c>
+      <c r="V103" t="s">
+        <v>19</v>
+      </c>
+      <c r="W103" s="1">
+        <v>12</v>
+      </c>
+      <c r="X103" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z103">
+        <v>1.5</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD103">
+        <v>27</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF103">
+        <v>0.75</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="2">
+        <v>5</v>
+      </c>
+      <c r="E104" s="12">
+        <v>175</v>
+      </c>
+      <c r="F104" s="12">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H104">
+        <v>0.85</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="1">
+        <v>12</v>
+      </c>
+      <c r="L104" s="4">
+        <v>10</v>
+      </c>
+      <c r="M104" t="s">
+        <v>350</v>
+      </c>
+      <c r="N104">
+        <v>0.35</v>
+      </c>
+      <c r="O104" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>12</v>
+      </c>
+      <c r="R104" s="4">
+        <v>16</v>
+      </c>
+      <c r="S104" t="s">
+        <v>118</v>
+      </c>
+      <c r="T104">
+        <v>0.35</v>
+      </c>
+      <c r="U104" t="s">
+        <v>36</v>
+      </c>
+      <c r="V104" t="s">
+        <v>19</v>
+      </c>
+      <c r="W104" s="1">
+        <v>12</v>
+      </c>
+      <c r="X104" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z104">
+        <v>1.5</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD104">
+        <v>27</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF104">
+        <v>0.75</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
+      <c r="E105" s="12">
+        <v>17</v>
+      </c>
+      <c r="F105" s="12">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H105">
+        <v>0.85</v>
+      </c>
+      <c r="I105" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="1">
+        <v>104</v>
+      </c>
+      <c r="L105" s="4">
+        <v>10</v>
+      </c>
+      <c r="M105" t="s">
+        <v>350</v>
+      </c>
+      <c r="N105">
+        <v>0.35</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>104</v>
+      </c>
+      <c r="R105" s="4">
+        <v>16</v>
+      </c>
+      <c r="S105" t="s">
+        <v>118</v>
+      </c>
+      <c r="T105">
+        <v>0.3</v>
+      </c>
+      <c r="U105" t="s">
+        <v>60</v>
+      </c>
+      <c r="V105" t="s">
+        <v>19</v>
+      </c>
+      <c r="W105" s="1">
+        <v>104</v>
+      </c>
+      <c r="X105" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z105">
+        <v>1.25</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>144</v>
+      </c>
+      <c r="AD105">
+        <v>27</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF105">
+        <v>0.6</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="2">
+        <v>5</v>
+      </c>
+      <c r="E106" s="12">
+        <v>175</v>
+      </c>
+      <c r="F106" s="12">
+        <v>2</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H106">
+        <v>0.85</v>
+      </c>
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="1">
+        <v>12</v>
+      </c>
+      <c r="L106" s="4">
+        <v>10</v>
+      </c>
+      <c r="M106" t="s">
+        <v>272</v>
+      </c>
+      <c r="N106">
+        <v>0.35</v>
+      </c>
+      <c r="O106" t="s">
+        <v>36</v>
+      </c>
+      <c r="P106" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>12</v>
+      </c>
+      <c r="R106" s="4">
+        <v>16</v>
+      </c>
+      <c r="S106" t="s">
+        <v>363</v>
+      </c>
+      <c r="T106">
+        <v>0.35</v>
+      </c>
+      <c r="U106" t="s">
+        <v>36</v>
+      </c>
+      <c r="V106" t="s">
+        <v>19</v>
+      </c>
+      <c r="W106" s="1">
+        <v>12</v>
+      </c>
+      <c r="X106" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z106">
+        <v>1.5</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD106">
+        <v>27</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF106">
+        <v>0.75</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4">
+        <v>184</v>
+      </c>
+      <c r="F107" s="4">
+        <v>30</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>58</v>
+      </c>
+      <c r="J107" t="s">
+        <v>81</v>
+      </c>
+      <c r="K107" s="1">
+        <v>10</v>
+      </c>
+      <c r="L107" s="4">
+        <v>10</v>
+      </c>
+      <c r="M107" t="s">
+        <v>369</v>
+      </c>
+      <c r="N107">
+        <v>1.75</v>
+      </c>
+      <c r="O107" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>10</v>
+      </c>
+      <c r="R107" s="12">
+        <v>29</v>
+      </c>
+      <c r="S107" t="s">
+        <v>370</v>
+      </c>
+      <c r="T107">
+        <v>0.75</v>
+      </c>
+      <c r="U107" t="s">
+        <v>60</v>
+      </c>
+      <c r="V107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+      <c r="E108" s="4">
+        <v>184</v>
+      </c>
+      <c r="F108" s="4">
+        <v>30</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>58</v>
+      </c>
+      <c r="J108" t="s">
+        <v>81</v>
+      </c>
+      <c r="K108" s="1">
+        <v>10</v>
+      </c>
+      <c r="L108" s="4">
+        <v>10</v>
+      </c>
+      <c r="M108" t="s">
+        <v>373</v>
+      </c>
+      <c r="N108">
+        <v>1.75</v>
+      </c>
+      <c r="O108" t="s">
+        <v>90</v>
+      </c>
+      <c r="P108" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>10</v>
+      </c>
+      <c r="R108" s="12">
+        <v>29</v>
+      </c>
+      <c r="S108" t="s">
+        <v>374</v>
+      </c>
+      <c r="T108">
+        <v>0.75</v>
+      </c>
+      <c r="U108" t="s">
+        <v>60</v>
+      </c>
+      <c r="V108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4">
+        <v>184</v>
+      </c>
+      <c r="F109" s="4">
+        <v>30</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>58</v>
+      </c>
+      <c r="J109" t="s">
+        <v>81</v>
+      </c>
+      <c r="K109" s="1">
+        <v>10</v>
+      </c>
+      <c r="L109" s="4">
+        <v>10</v>
+      </c>
+      <c r="M109" t="s">
+        <v>377</v>
+      </c>
+      <c r="N109">
+        <v>1.75</v>
+      </c>
+      <c r="O109" t="s">
+        <v>90</v>
+      </c>
+      <c r="P109" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>10</v>
+      </c>
+      <c r="R109" s="12">
+        <v>29</v>
+      </c>
+      <c r="S109" t="s">
+        <v>378</v>
+      </c>
+      <c r="T109">
+        <v>0.75</v>
+      </c>
+      <c r="U109" t="s">
+        <v>60</v>
+      </c>
+      <c r="V109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4">
+        <v>184</v>
+      </c>
+      <c r="F110" s="4">
+        <v>30</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>58</v>
+      </c>
+      <c r="J110" t="s">
+        <v>81</v>
+      </c>
+      <c r="K110" s="1">
+        <v>10</v>
+      </c>
+      <c r="L110" s="4">
+        <v>10</v>
+      </c>
+      <c r="M110" t="s">
+        <v>381</v>
+      </c>
+      <c r="N110">
+        <v>1.75</v>
+      </c>
+      <c r="O110" t="s">
+        <v>90</v>
+      </c>
+      <c r="P110" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>10</v>
+      </c>
+      <c r="R110" s="12">
+        <v>29</v>
+      </c>
+      <c r="S110" t="s">
+        <v>382</v>
+      </c>
+      <c r="T110">
+        <v>0.75</v>
+      </c>
+      <c r="U110" t="s">
+        <v>60</v>
+      </c>
+      <c r="V110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+      <c r="E111" s="4">
+        <v>148</v>
+      </c>
+      <c r="F111" s="4">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>384</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>58</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="1">
+        <v>140</v>
+      </c>
+      <c r="L111" s="12">
+        <v>10</v>
+      </c>
+      <c r="M111" t="s">
+        <v>383</v>
+      </c>
+      <c r="N111">
+        <v>1.35</v>
+      </c>
+      <c r="O111" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q111" s="12">
+        <v>140</v>
+      </c>
+      <c r="R111" s="12">
+        <v>29</v>
+      </c>
+      <c r="S111" t="s">
+        <v>385</v>
+      </c>
+      <c r="T111">
+        <v>0.35</v>
+      </c>
+      <c r="U111" t="s">
+        <v>389</v>
+      </c>
+      <c r="V111" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+      <c r="E112" s="4">
+        <v>148</v>
+      </c>
+      <c r="F112" s="4">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>388</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>58</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="1">
+        <v>140</v>
+      </c>
+      <c r="L112" s="12">
+        <v>10</v>
+      </c>
+      <c r="M112" t="s">
+        <v>204</v>
+      </c>
+      <c r="N112">
+        <v>1.75</v>
+      </c>
+      <c r="O112" t="s">
+        <v>28</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q112" s="12">
+        <v>140</v>
+      </c>
+      <c r="R112" s="12">
+        <v>29</v>
+      </c>
+      <c r="S112" t="s">
+        <v>205</v>
+      </c>
+      <c r="T112">
+        <v>0.4</v>
+      </c>
+      <c r="U112" t="s">
+        <v>28</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4">
+        <v>184</v>
+      </c>
+      <c r="F113" s="4">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>388</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>58</v>
+      </c>
+      <c r="J113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1">
+        <v>10</v>
+      </c>
+      <c r="L113" s="12">
+        <v>10</v>
+      </c>
+      <c r="M113" t="s">
+        <v>316</v>
+      </c>
+      <c r="N113">
+        <v>1.75</v>
+      </c>
+      <c r="O113" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q113" s="12">
+        <v>10</v>
+      </c>
+      <c r="R113" s="12">
+        <v>29</v>
+      </c>
+      <c r="S113" t="s">
+        <v>205</v>
+      </c>
+      <c r="T113">
+        <v>0.75</v>
+      </c>
+      <c r="U113" t="s">
+        <v>60</v>
+      </c>
+      <c r="V113" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
